--- a/processing/DATA/TailOffData.xlsx
+++ b/processing/DATA/TailOffData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
   <si>
     <t xml:space="preserve">AoA</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">CMy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMr</t>
   </si>
 </sst>
 </file>
@@ -342,7 +345,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1012,11 +1015,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="32292848"/>
-        <c:axId val="12075224"/>
+        <c:axId val="69144889"/>
+        <c:axId val="87787576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="32292848"/>
+        <c:axId val="69144889"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1092,12 +1095,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12075224"/>
+        <c:crossAx val="87787576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="12075224"/>
+        <c:axId val="87787576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1173,7 +1176,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32292848"/>
+        <c:crossAx val="69144889"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1225,7 +1228,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart50.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1895,11 +1898,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="96890243"/>
-        <c:axId val="7045170"/>
+        <c:axId val="46586369"/>
+        <c:axId val="3690067"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="96890243"/>
+        <c:axId val="46586369"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1975,12 +1978,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7045170"/>
+        <c:crossAx val="3690067"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="7045170"/>
+        <c:axId val="3690067"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2056,7 +2059,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96890243"/>
+        <c:crossAx val="46586369"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2108,7 +2111,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2778,11 +2781,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="26618646"/>
-        <c:axId val="10051453"/>
+        <c:axId val="20900756"/>
+        <c:axId val="63989647"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="26618646"/>
+        <c:axId val="20900756"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2858,12 +2861,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10051453"/>
+        <c:crossAx val="63989647"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="10051453"/>
+        <c:axId val="63989647"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2939,7 +2942,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26618646"/>
+        <c:crossAx val="20900756"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2991,7 +2994,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3271,11 +3274,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="43632883"/>
-        <c:axId val="27059591"/>
+        <c:axId val="67057492"/>
+        <c:axId val="1982103"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="43632883"/>
+        <c:axId val="67057492"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3351,12 +3354,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27059591"/>
+        <c:crossAx val="1982103"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="27059591"/>
+        <c:axId val="1982103"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3432,7 +3435,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43632883"/>
+        <c:crossAx val="67057492"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3484,7 +3487,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3764,11 +3767,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="6465845"/>
-        <c:axId val="77082035"/>
+        <c:axId val="14035595"/>
+        <c:axId val="56232927"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="6465845"/>
+        <c:axId val="14035595"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3844,12 +3847,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77082035"/>
+        <c:crossAx val="56232927"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="77082035"/>
+        <c:axId val="56232927"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3925,7 +3928,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6465845"/>
+        <c:crossAx val="14035595"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3977,7 +3980,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4257,11 +4260,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="77253670"/>
-        <c:axId val="93337787"/>
+        <c:axId val="58735977"/>
+        <c:axId val="1363242"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="77253670"/>
+        <c:axId val="58735977"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4337,12 +4340,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93337787"/>
+        <c:crossAx val="1363242"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="93337787"/>
+        <c:axId val="1363242"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4418,7 +4421,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77253670"/>
+        <c:crossAx val="58735977"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4481,9 +4484,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>207000</xdr:colOff>
+      <xdr:colOff>206640</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>117000</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4491,8 +4494,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6431400" y="487440"/>
-        <a:ext cx="4989600" cy="2639160"/>
+        <a:off x="6429600" y="487440"/>
+        <a:ext cx="4984560" cy="2638800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4511,9 +4514,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>256320</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>127080</xdr:rowOff>
+      <xdr:rowOff>126720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4521,8 +4524,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9972000" y="497520"/>
-        <a:ext cx="4915080" cy="2639160"/>
+        <a:off x="9966960" y="497520"/>
+        <a:ext cx="4910040" cy="2638800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4541,9 +4544,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>422640</xdr:colOff>
+      <xdr:colOff>422280</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>176040</xdr:rowOff>
+      <xdr:rowOff>175680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4551,8 +4554,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7409160" y="3357360"/>
-        <a:ext cx="4910760" cy="2637720"/>
+        <a:off x="7406640" y="3357360"/>
+        <a:ext cx="4905720" cy="2637360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4571,9 +4574,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>197280</xdr:colOff>
+      <xdr:colOff>196920</xdr:colOff>
       <xdr:row>86</xdr:row>
-      <xdr:rowOff>52560</xdr:rowOff>
+      <xdr:rowOff>52200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4581,8 +4584,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6496200" y="14080680"/>
-        <a:ext cx="4915080" cy="2639160"/>
+        <a:off x="6494400" y="14080680"/>
+        <a:ext cx="4910040" cy="2638800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4601,9 +4604,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>75600</xdr:colOff>
+      <xdr:colOff>75240</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>119520</xdr:rowOff>
+      <xdr:rowOff>119160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4611,8 +4614,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9717120" y="13766760"/>
-        <a:ext cx="4988880" cy="2639160"/>
+        <a:off x="9712800" y="13766760"/>
+        <a:ext cx="4983120" cy="2638800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4631,9 +4634,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>408960</xdr:colOff>
+      <xdr:colOff>408600</xdr:colOff>
       <xdr:row>97</xdr:row>
-      <xdr:rowOff>144000</xdr:rowOff>
+      <xdr:rowOff>143640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4641,8 +4644,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7391520" y="16267320"/>
-        <a:ext cx="4914720" cy="2639520"/>
+        <a:off x="7389000" y="16267320"/>
+        <a:ext cx="4909680" cy="2639160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4668,7 +4671,7 @@
       <selection pane="bottomLeft" activeCell="M55" activeCellId="0" sqref="M55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="1" width="9.14"/>
   </cols>
@@ -6457,12 +6460,12 @@
   <dimension ref="A1:O211"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="L24" activeCellId="0" sqref="L24"/>
+      <selection pane="bottomLeft" activeCell="J105" activeCellId="0" sqref="J105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="1" width="9.14"/>
   </cols>
@@ -6492,6 +6495,9 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
@@ -6518,6 +6524,9 @@
       <c r="H2" s="13" t="n">
         <v>0.00848000516956385</v>
       </c>
+      <c r="I2" s="13" t="n">
+        <v>0.0390790129640172</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
@@ -6544,6 +6553,9 @@
       <c r="H3" s="13" t="n">
         <v>0.0237017062864939</v>
       </c>
+      <c r="I3" s="13" t="n">
+        <v>0.0606124608281047</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
@@ -6570,6 +6582,9 @@
       <c r="H4" s="13" t="n">
         <v>0.0221073199285606</v>
       </c>
+      <c r="I4" s="13" t="n">
+        <v>0.0541029719377533</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
@@ -6596,6 +6611,9 @@
       <c r="H5" s="13" t="n">
         <v>0.0197144654863388</v>
       </c>
+      <c r="I5" s="13" t="n">
+        <v>0.0462119518308011</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
@@ -6622,6 +6640,9 @@
       <c r="H6" s="13" t="n">
         <v>0.0166553049271998</v>
       </c>
+      <c r="I6" s="13" t="n">
+        <v>0.0373408895569526</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
@@ -6648,6 +6669,9 @@
       <c r="H7" s="13" t="n">
         <v>0.0126079167266212</v>
       </c>
+      <c r="I7" s="13" t="n">
+        <v>0.0270251810901306</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
@@ -6674,6 +6698,9 @@
       <c r="H8" s="13" t="n">
         <v>0.00957415346405679</v>
       </c>
+      <c r="I8" s="13" t="n">
+        <v>0.0184797848357461</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
@@ -6700,6 +6727,9 @@
       <c r="H9" s="13" t="n">
         <v>0.0068504313011696</v>
       </c>
+      <c r="I9" s="13" t="n">
+        <v>0.0111326299301527</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
@@ -6726,6 +6756,9 @@
       <c r="H10" s="13" t="n">
         <v>0.00437366305310022</v>
       </c>
+      <c r="I10" s="13" t="n">
+        <v>0.00446715483946328</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
@@ -6752,6 +6785,9 @@
       <c r="H11" s="13" t="n">
         <v>0.00202617742668395</v>
       </c>
+      <c r="I11" s="13" t="n">
+        <v>-0.00241899439142719</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
@@ -6778,6 +6814,9 @@
       <c r="H12" s="13" t="n">
         <v>-0.000334878177866457</v>
       </c>
+      <c r="I12" s="13" t="n">
+        <v>-0.00675382605024705</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
@@ -6804,6 +6843,9 @@
       <c r="H13" s="13" t="n">
         <v>-0.00340626280430836</v>
       </c>
+      <c r="I13" s="13" t="n">
+        <v>-0.00735736590734688</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
@@ -6830,6 +6872,9 @@
       <c r="H14" s="13" t="n">
         <v>-0.00634651122999183</v>
       </c>
+      <c r="I14" s="13" t="n">
+        <v>-0.0128068753552618</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
@@ -6856,6 +6901,9 @@
       <c r="H15" s="13" t="n">
         <v>-0.00917381033263924</v>
       </c>
+      <c r="I15" s="13" t="n">
+        <v>-0.020108109939599</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
@@ -6882,6 +6930,9 @@
       <c r="H16" s="13" t="n">
         <v>-0.0125999771169658</v>
       </c>
+      <c r="I16" s="13" t="n">
+        <v>-0.0285297873677448</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
@@ -6908,6 +6959,9 @@
       <c r="H17" s="13" t="n">
         <v>-0.0159294695147054</v>
       </c>
+      <c r="I17" s="13" t="n">
+        <v>-0.0374025629779295</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
@@ -6934,6 +6988,9 @@
       <c r="H18" s="13" t="n">
         <v>-0.0191692674760533</v>
       </c>
+      <c r="I18" s="13" t="n">
+        <v>-0.0462841475599696</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
@@ -6960,6 +7017,9 @@
       <c r="H19" s="13" t="n">
         <v>-0.0216361560284699</v>
       </c>
+      <c r="I19" s="13" t="n">
+        <v>-0.0542752478483656</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
@@ -6986,6 +7046,9 @@
       <c r="H20" s="13" t="n">
         <v>-0.0231173664423031</v>
       </c>
+      <c r="I20" s="13" t="n">
+        <v>-0.0603246755269208</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
@@ -7012,6 +7075,9 @@
       <c r="H21" s="13" t="n">
         <v>-0.0239093445039135</v>
       </c>
+      <c r="I21" s="13" t="n">
+        <v>-0.065142840466325</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="n">
@@ -7038,6 +7104,9 @@
       <c r="H22" s="13" t="n">
         <v>-0.0224412016397199</v>
       </c>
+      <c r="I22" s="13" t="n">
+        <v>-0.0659519674901669</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
@@ -7064,6 +7133,9 @@
       <c r="H23" s="14" t="n">
         <v>-0.00666531361130741</v>
       </c>
+      <c r="I23" s="14" t="n">
+        <v>0.011795220171354</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
@@ -7090,6 +7162,9 @@
       <c r="H24" s="14" t="n">
         <v>-0.00751087507833338</v>
       </c>
+      <c r="I24" s="14" t="n">
+        <v>0.00651089545293593</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
@@ -7116,6 +7191,9 @@
       <c r="H25" s="14" t="n">
         <v>-0.00822810726120352</v>
       </c>
+      <c r="I25" s="14" t="n">
+        <v>0.00182598405038115</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
@@ -7142,6 +7220,9 @@
       <c r="H26" s="14" t="n">
         <v>-0.00816807417078159</v>
       </c>
+      <c r="I26" s="14" t="n">
+        <v>-0.00132748832236832</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
@@ -7168,6 +7249,9 @@
       <c r="H27" s="14" t="n">
         <v>-0.00752130374757151</v>
       </c>
+      <c r="I27" s="14" t="n">
+        <v>-0.0037112615064164</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
@@ -7194,6 +7278,9 @@
       <c r="H28" s="14" t="n">
         <v>-0.00113672669653137</v>
       </c>
+      <c r="I28" s="14" t="n">
+        <v>0.00572483920732322</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
@@ -7220,6 +7307,9 @@
       <c r="H29" s="14" t="n">
         <v>0.00360158271966117</v>
       </c>
+      <c r="I29" s="14" t="n">
+        <v>0.0101173232830002</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
@@ -7246,6 +7336,9 @@
       <c r="H30" s="14" t="n">
         <v>0.00756334881883281</v>
       </c>
+      <c r="I30" s="14" t="n">
+        <v>0.0113478186563788</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
@@ -7272,6 +7365,9 @@
       <c r="H31" s="14" t="n">
         <v>0.00511829781946813</v>
       </c>
+      <c r="I31" s="14" t="n">
+        <v>0.00486806640729333</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
@@ -7298,6 +7394,9 @@
       <c r="H32" s="14" t="n">
         <v>0.00250925193862836</v>
       </c>
+      <c r="I32" s="14" t="n">
+        <v>-0.00174444930714627</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
@@ -7324,6 +7423,9 @@
       <c r="H33" s="14" t="n">
         <v>-0.000460958752850992</v>
       </c>
+      <c r="I33" s="14" t="n">
+        <v>-0.00752353881235347</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
@@ -7350,6 +7452,9 @@
       <c r="H34" s="14" t="n">
         <v>-0.00344895518223198</v>
       </c>
+      <c r="I34" s="14" t="n">
+        <v>-0.0105965627488206</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
@@ -7376,6 +7481,9 @@
       <c r="H35" s="14" t="n">
         <v>-0.00648269044047941</v>
       </c>
+      <c r="I35" s="14" t="n">
+        <v>-0.016540158926854</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
@@ -7402,6 +7510,9 @@
       <c r="H36" s="14" t="n">
         <v>-0.0094670978587792</v>
       </c>
+      <c r="I36" s="14" t="n">
+        <v>-0.022062029714848</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
@@ -7428,6 +7539,9 @@
       <c r="H37" s="14" t="n">
         <v>-0.0127129600369112</v>
       </c>
+      <c r="I37" s="14" t="n">
+        <v>-0.0306648245934195</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
@@ -7454,6 +7568,9 @@
       <c r="H38" s="14" t="n">
         <v>0.00174521832649681</v>
       </c>
+      <c r="I38" s="14" t="n">
+        <v>-0.008697616302689</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
@@ -7480,6 +7597,9 @@
       <c r="H39" s="14" t="n">
         <v>0.0051480384885941</v>
       </c>
+      <c r="I39" s="14" t="n">
+        <v>-0.0063403687423834</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
@@ -7506,6 +7626,9 @@
       <c r="H40" s="14" t="n">
         <v>0.0055655104118582</v>
       </c>
+      <c r="I40" s="14" t="n">
+        <v>-0.00872214266682621</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
@@ -7532,6 +7655,9 @@
       <c r="H41" s="14" t="n">
         <v>0.00473080315594836</v>
       </c>
+      <c r="I41" s="14" t="n">
+        <v>-0.0136843716707565</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
@@ -7558,6 +7684,9 @@
       <c r="H42" s="14" t="n">
         <v>0.0039609784139561</v>
       </c>
+      <c r="I42" s="14" t="n">
+        <v>-0.0188477622849084</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="n">
@@ -7584,6 +7713,9 @@
       <c r="H43" s="14" t="n">
         <v>0.00290437458615042</v>
       </c>
+      <c r="I43" s="14" t="n">
+        <v>-0.0240049144077321</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
@@ -7610,6 +7742,9 @@
       <c r="H44" s="11" t="n">
         <v>-0.00188220003155587</v>
       </c>
+      <c r="I44" s="11" t="n">
+        <v>0.0203483218711879</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
@@ -7636,6 +7771,9 @@
       <c r="H45" s="11" t="n">
         <v>-0.00222528362293092</v>
       </c>
+      <c r="I45" s="11" t="n">
+        <v>0.0164244327595062</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
@@ -7662,6 +7800,9 @@
       <c r="H46" s="11" t="n">
         <v>-0.00263278165420561</v>
       </c>
+      <c r="I46" s="11" t="n">
+        <v>0.0121257178827526</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
@@ -7688,6 +7829,9 @@
       <c r="H47" s="11" t="n">
         <v>-0.000184821047731634</v>
       </c>
+      <c r="I47" s="11" t="n">
+        <v>0.0119958610096796</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
@@ -7714,6 +7858,9 @@
       <c r="H48" s="11" t="n">
         <v>0.00480280209825907</v>
       </c>
+      <c r="I48" s="11" t="n">
+        <v>0.0159288698254625</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
@@ -7740,6 +7887,9 @@
       <c r="H49" s="11" t="n">
         <v>0.0139656711396</v>
       </c>
+      <c r="I49" s="11" t="n">
+        <v>0.0291428266493884</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
@@ -7766,6 +7916,9 @@
       <c r="H50" s="11" t="n">
         <v>0.010439470854447</v>
       </c>
+      <c r="I50" s="11" t="n">
+        <v>0.0199346420570487</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
@@ -7792,6 +7945,9 @@
       <c r="H51" s="11" t="n">
         <v>0.00757328182307687</v>
       </c>
+      <c r="I51" s="11" t="n">
+        <v>0.0122381214224989</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
@@ -7818,6 +7974,9 @@
       <c r="H52" s="11" t="n">
         <v>0.00506681269200138</v>
       </c>
+      <c r="I52" s="11" t="n">
+        <v>0.00595724170263596</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
@@ -7844,6 +8003,9 @@
       <c r="H53" s="11" t="n">
         <v>0.00246448523826731</v>
       </c>
+      <c r="I53" s="11" t="n">
+        <v>-0.000117171280857061</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
@@ -7870,6 +8032,9 @@
       <c r="H54" s="11" t="n">
         <v>-0.000293565362470028</v>
       </c>
+      <c r="I54" s="11" t="n">
+        <v>-0.00540785972827909</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
@@ -7896,6 +8061,9 @@
       <c r="H55" s="11" t="n">
         <v>-0.00293845306713326</v>
       </c>
+      <c r="I55" s="11" t="n">
+        <v>-0.00933458183636639</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
@@ -7922,6 +8090,9 @@
       <c r="H56" s="11" t="n">
         <v>-0.00639426838253429</v>
       </c>
+      <c r="I56" s="11" t="n">
+        <v>-0.0139376228607849</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
@@ -7948,6 +8119,9 @@
       <c r="H57" s="11" t="n">
         <v>-0.00952785121079083</v>
       </c>
+      <c r="I57" s="11" t="n">
+        <v>-0.0209440413122652</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
@@ -7974,6 +8148,9 @@
       <c r="H58" s="11" t="n">
         <v>-0.013333267238726</v>
       </c>
+      <c r="I58" s="11" t="n">
+        <v>-0.0305658533082012</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
@@ -8000,6 +8177,9 @@
       <c r="H59" s="11" t="n">
         <v>-0.0162791673107595</v>
       </c>
+      <c r="I59" s="11" t="n">
+        <v>-0.0384974006971145</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
@@ -8026,6 +8206,9 @@
       <c r="H60" s="11" t="n">
         <v>-0.0199003486239031</v>
       </c>
+      <c r="I60" s="11" t="n">
+        <v>-0.0481915870682254</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
@@ -8052,6 +8235,9 @@
       <c r="H61" s="11" t="n">
         <v>-0.0224741343682472</v>
       </c>
+      <c r="I61" s="11" t="n">
+        <v>-0.0559191220369036</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
@@ -8078,6 +8264,9 @@
       <c r="H62" s="11" t="n">
         <v>-0.0248855906796279</v>
       </c>
+      <c r="I62" s="11" t="n">
+        <v>-0.0637704689047147</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
@@ -8104,6 +8293,9 @@
       <c r="H63" s="11" t="n">
         <v>-0.0267660838857849</v>
       </c>
+      <c r="I63" s="11" t="n">
+        <v>-0.0707496566358138</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="7" t="n">
@@ -8130,8 +8322,11 @@
       <c r="H64" s="11" t="n">
         <v>-0.0279750222400776</v>
       </c>
-    </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I64" s="11" t="n">
+        <v>-0.0761371841540297</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
         <v>4.995</v>
       </c>
@@ -8156,8 +8351,11 @@
       <c r="H65" s="15" t="n">
         <v>0.00904633548283138</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I65" s="15" t="n">
+        <v>0.0360936934398805</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
         <v>4.995</v>
       </c>
@@ -8182,8 +8380,11 @@
       <c r="H66" s="15" t="n">
         <v>0.0240176131461363</v>
       </c>
-    </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I66" s="15" t="n">
+        <v>0.0546656595022905</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
         <v>4.995</v>
       </c>
@@ -8208,8 +8409,11 @@
       <c r="H67" s="15" t="n">
         <v>0.0220061843447374</v>
       </c>
-    </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I67" s="15" t="n">
+        <v>0.048170974233919</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
         <v>4.995</v>
       </c>
@@ -8234,8 +8438,11 @@
       <c r="H68" s="15" t="n">
         <v>0.0192556994551794</v>
       </c>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I68" s="15" t="n">
+        <v>0.0409829814290869</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
         <v>4.995</v>
       </c>
@@ -8260,8 +8467,11 @@
       <c r="H69" s="15" t="n">
         <v>0.0158451357525633</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I69" s="15" t="n">
+        <v>0.0329113173961679</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
         <v>4.995</v>
       </c>
@@ -8286,8 +8496,11 @@
       <c r="H70" s="15" t="n">
         <v>0.012505711135737</v>
       </c>
-    </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I70" s="15" t="n">
+        <v>0.024850265199732</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
         <v>4.995</v>
       </c>
@@ -8312,8 +8525,11 @@
       <c r="H71" s="15" t="n">
         <v>0.00910577793784941</v>
       </c>
-    </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I71" s="15" t="n">
+        <v>0.0172814946586897</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
         <v>4.995</v>
       </c>
@@ -8338,8 +8554,11 @@
       <c r="H72" s="15" t="n">
         <v>0.00605668102685475</v>
       </c>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I72" s="15" t="n">
+        <v>0.0100439094156679</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
         <v>4.995</v>
       </c>
@@ -8364,8 +8583,11 @@
       <c r="H73" s="15" t="n">
         <v>0.00359115200820759</v>
       </c>
-    </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I73" s="15" t="n">
+        <v>0.00378861960762195</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
         <v>4.995</v>
       </c>
@@ -8390,8 +8612,11 @@
       <c r="H74" s="15" t="n">
         <v>0.00123411031800153</v>
       </c>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I74" s="15" t="n">
+        <v>-0.00142988209157533</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
         <v>4.995</v>
       </c>
@@ -8416,8 +8641,11 @@
       <c r="H75" s="15" t="n">
         <v>-0.00122668222339004</v>
       </c>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I75" s="15" t="n">
+        <v>-0.00587422383988759</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
         <v>4.995</v>
       </c>
@@ -8442,8 +8670,11 @@
       <c r="H76" s="15" t="n">
         <v>-0.00368075753841215</v>
       </c>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I76" s="15" t="n">
+        <v>-0.0099133372433372</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
         <v>4.995</v>
       </c>
@@ -8468,8 +8699,11 @@
       <c r="H77" s="15" t="n">
         <v>-0.00632099090373762</v>
       </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I77" s="15" t="n">
+        <v>-0.0124906579805701</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
         <v>4.995</v>
       </c>
@@ -8494,8 +8728,11 @@
       <c r="H78" s="15" t="n">
         <v>-0.00919683029517004</v>
       </c>
-    </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I78" s="15" t="n">
+        <v>-0.0184631522125707</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
         <v>4.995</v>
       </c>
@@ -8520,8 +8757,11 @@
       <c r="H79" s="15" t="n">
         <v>-0.013212918897135</v>
       </c>
-    </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I79" s="15" t="n">
+        <v>-0.0271852360951167</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="n">
         <v>4.995</v>
       </c>
@@ -8546,8 +8786,11 @@
       <c r="H80" s="15" t="n">
         <v>-0.0160745099228269</v>
       </c>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I80" s="15" t="n">
+        <v>-0.0341937821946831</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="n">
         <v>4.995</v>
       </c>
@@ -8572,8 +8815,11 @@
       <c r="H81" s="15" t="n">
         <v>-0.0190192120870411</v>
       </c>
-    </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I81" s="15" t="n">
+        <v>-0.0414814276180648</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="n">
         <v>4.995</v>
       </c>
@@ -8598,8 +8844,11 @@
       <c r="H82" s="15" t="n">
         <v>-0.0221925291428281</v>
       </c>
-    </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I82" s="15" t="n">
+        <v>-0.0487388027445022</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="n">
         <v>4.995</v>
       </c>
@@ -8624,8 +8873,11 @@
       <c r="H83" s="15" t="n">
         <v>-0.0240487262826648</v>
       </c>
-    </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I83" s="15" t="n">
+        <v>-0.0551366962830451</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="n">
         <v>4.995</v>
       </c>
@@ -8650,8 +8902,11 @@
       <c r="H84" s="15" t="n">
         <v>-0.0257180581205693</v>
       </c>
-    </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I84" s="15" t="n">
+        <v>-0.0608839069359994</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="7" t="n">
         <v>4.995</v>
       </c>
@@ -8676,8 +8931,11 @@
       <c r="H85" s="15" t="n">
         <v>-0.0243134811456534</v>
       </c>
-    </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I85" s="15" t="n">
+        <v>-0.0619257764407556</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="n">
         <v>4.995</v>
       </c>
@@ -8702,8 +8960,11 @@
       <c r="H86" s="16" t="n">
         <v>-0.00645425635705066</v>
       </c>
-    </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I86" s="16" t="n">
+        <v>0.0126210049497539</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="n">
         <v>4.995</v>
       </c>
@@ -8728,8 +8989,11 @@
       <c r="H87" s="16" t="n">
         <v>-0.00756326163087457</v>
       </c>
-    </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I87" s="16" t="n">
+        <v>0.00737254327261667</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="n">
         <v>4.995</v>
       </c>
@@ -8754,8 +9018,11 @@
       <c r="H88" s="16" t="n">
         <v>-0.00823375366783781</v>
       </c>
-    </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I88" s="16" t="n">
+        <v>0.00342644022215386</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="n">
         <v>4.995</v>
       </c>
@@ -8780,8 +9047,11 @@
       <c r="H89" s="16" t="n">
         <v>-0.00807171807682503</v>
       </c>
-    </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I89" s="16" t="n">
+        <v>0.000551121584111627</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="n">
         <v>4.995</v>
       </c>
@@ -8806,8 +9076,11 @@
       <c r="H90" s="16" t="n">
         <v>-0.00598667111694771</v>
       </c>
-    </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I90" s="16" t="n">
+        <v>0.00199570679458424</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="n">
         <v>4.995</v>
       </c>
@@ -8832,8 +9105,11 @@
       <c r="H91" s="16" t="n">
         <v>-0.00170748946975741</v>
       </c>
-    </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I91" s="16" t="n">
+        <v>0.00567785355263048</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="n">
         <v>4.995</v>
       </c>
@@ -8858,8 +9134,11 @@
       <c r="H92" s="16" t="n">
         <v>0.00997838457726672</v>
       </c>
-    </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I92" s="16" t="n">
+        <v>0.018654388103931</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="n">
         <v>4.995</v>
       </c>
@@ -8884,8 +9163,11 @@
       <c r="H93" s="16" t="n">
         <v>0.00696398725047843</v>
       </c>
-    </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I93" s="16" t="n">
+        <v>0.0117483258908005</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="n">
         <v>4.995</v>
       </c>
@@ -8910,8 +9192,11 @@
       <c r="H94" s="16" t="n">
         <v>0.00450536005758172</v>
       </c>
-    </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I94" s="16" t="n">
+        <v>0.00572233518363007</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="n">
         <v>4.995</v>
       </c>
@@ -8936,8 +9221,11 @@
       <c r="H95" s="16" t="n">
         <v>0.0018345141037763</v>
       </c>
-    </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I95" s="16" t="n">
+        <v>-0.000747538187803248</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="n">
         <v>4.995</v>
       </c>
@@ -8962,8 +9250,11 @@
       <c r="H96" s="16" t="n">
         <v>-0.0010887137898378</v>
       </c>
-    </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I96" s="16" t="n">
+        <v>-0.00619018395781685</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="n">
         <v>4.995</v>
       </c>
@@ -8988,8 +9279,11 @@
       <c r="H97" s="16" t="n">
         <v>-0.00388416173855744</v>
       </c>
-    </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I97" s="16" t="n">
+        <v>-0.011105910899763</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="n">
         <v>4.995</v>
       </c>
@@ -9014,8 +9308,11 @@
       <c r="H98" s="16" t="n">
         <v>-0.00675077280282262</v>
       </c>
-    </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I98" s="16" t="n">
+        <v>-0.0142168038172246</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="n">
         <v>4.995</v>
       </c>
@@ -9040,8 +9337,11 @@
       <c r="H99" s="16" t="n">
         <v>-0.00994429207024017</v>
       </c>
-    </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I99" s="16" t="n">
+        <v>-0.019912441551914</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="n">
         <v>4.995</v>
       </c>
@@ -9066,8 +9366,11 @@
       <c r="H100" s="16" t="n">
         <v>-0.0127563148938885</v>
       </c>
-    </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I100" s="16" t="n">
+        <v>-0.0267223688744522</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="n">
         <v>4.995</v>
       </c>
@@ -9092,8 +9395,11 @@
       <c r="H101" s="16" t="n">
         <v>0.00127386076423852</v>
       </c>
-    </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I101" s="16" t="n">
+        <v>-0.00879596179811997</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="n">
         <v>4.995</v>
       </c>
@@ -9118,8 +9424,11 @@
       <c r="H102" s="16" t="n">
         <v>0.0053548508008356</v>
       </c>
-    </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I102" s="16" t="n">
+        <v>-0.00502095448879552</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="n">
         <v>4.995</v>
       </c>
@@ -9144,8 +9453,11 @@
       <c r="H103" s="16" t="n">
         <v>0.00601814253290207</v>
       </c>
-    </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I103" s="16" t="n">
+        <v>-0.00737271292523123</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="n">
         <v>4.995</v>
       </c>
@@ -9170,8 +9482,11 @@
       <c r="H104" s="16" t="n">
         <v>0.00513577977210423</v>
       </c>
-    </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I104" s="16" t="n">
+        <v>-0.0119254059407713</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="n">
         <v>4.995</v>
       </c>
@@ -9196,8 +9511,11 @@
       <c r="H105" s="16" t="n">
         <v>0.00429982681458108</v>
       </c>
-    </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I105" s="16" t="n">
+        <v>-0.0157050640716898</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="7" t="n">
         <v>4.995</v>
       </c>
@@ -9222,8 +9540,11 @@
       <c r="H106" s="16" t="n">
         <v>0.00325682045808119</v>
       </c>
-    </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I106" s="16" t="n">
+        <v>-0.0209315357980171</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="n">
         <v>4.995</v>
       </c>
@@ -9248,8 +9569,11 @@
       <c r="H107" s="17" t="n">
         <v>-0.000653393478494275</v>
       </c>
-    </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I107" s="17" t="n">
+        <v>0.0218561429543391</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="n">
         <v>4.995</v>
       </c>
@@ -9274,8 +9598,11 @@
       <c r="H108" s="17" t="n">
         <v>-0.0032516315855056</v>
       </c>
-    </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I108" s="17" t="n">
+        <v>0.0142802888963925</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="n">
         <v>4.995</v>
       </c>
@@ -9300,10 +9627,13 @@
       <c r="H109" s="17" t="n">
         <v>-0.00443726020279413</v>
       </c>
+      <c r="I109" s="17" t="n">
+        <v>0.00927940203988634</v>
+      </c>
       <c r="N109" s="5"/>
       <c r="O109" s="5"/>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="n">
         <v>4.995</v>
       </c>
@@ -9328,10 +9658,13 @@
       <c r="H110" s="17" t="n">
         <v>-0.00295008965973961</v>
       </c>
+      <c r="I110" s="17" t="n">
+        <v>0.00867204182650685</v>
+      </c>
       <c r="N110" s="5"/>
       <c r="O110" s="5"/>
     </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="n">
         <v>4.995</v>
       </c>
@@ -9356,10 +9689,13 @@
       <c r="H111" s="17" t="n">
         <v>0.00404708892334585</v>
       </c>
+      <c r="I111" s="17" t="n">
+        <v>0.0149034503183647</v>
+      </c>
       <c r="N111" s="5"/>
       <c r="O111" s="5"/>
     </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="n">
         <v>4.995</v>
       </c>
@@ -9384,10 +9720,13 @@
       <c r="H112" s="17" t="n">
         <v>0.0133272725025758</v>
       </c>
+      <c r="I112" s="17" t="n">
+        <v>0.0265562305682385</v>
+      </c>
       <c r="N112" s="5"/>
       <c r="O112" s="5"/>
     </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="n">
         <v>4.995</v>
       </c>
@@ -9412,10 +9751,13 @@
       <c r="H113" s="17" t="n">
         <v>0.00998318061016989</v>
       </c>
+      <c r="I113" s="17" t="n">
+        <v>0.0188021147359913</v>
+      </c>
       <c r="N113" s="5"/>
       <c r="O113" s="5"/>
     </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="n">
         <v>4.995</v>
       </c>
@@ -9440,10 +9782,13 @@
       <c r="H114" s="17" t="n">
         <v>0.0069136869674465</v>
       </c>
+      <c r="I114" s="17" t="n">
+        <v>0.0118064111230221</v>
+      </c>
       <c r="N114" s="5"/>
       <c r="O114" s="5"/>
     </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="n">
         <v>4.995</v>
       </c>
@@ -9468,10 +9813,13 @@
       <c r="H115" s="17" t="n">
         <v>0.00426690636018805</v>
       </c>
+      <c r="I115" s="17" t="n">
+        <v>0.00531227521485738</v>
+      </c>
       <c r="N115" s="5"/>
       <c r="O115" s="5"/>
     </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="n">
         <v>4.995</v>
       </c>
@@ -9496,10 +9844,13 @@
       <c r="H116" s="17" t="n">
         <v>0.0017761416821779</v>
       </c>
+      <c r="I116" s="17" t="n">
+        <v>-0.000641025882170507</v>
+      </c>
       <c r="N116" s="5"/>
       <c r="O116" s="5"/>
     </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="n">
         <v>4.995</v>
       </c>
@@ -9524,10 +9875,13 @@
       <c r="H117" s="17" t="n">
         <v>-0.00100572854388464</v>
       </c>
+      <c r="I117" s="17" t="n">
+        <v>-0.00584548246010769</v>
+      </c>
       <c r="N117" s="5"/>
       <c r="O117" s="5"/>
     </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="n">
         <v>4.995</v>
       </c>
@@ -9552,10 +9906,13 @@
       <c r="H118" s="17" t="n">
         <v>-0.00376684927430276</v>
       </c>
+      <c r="I118" s="17" t="n">
+        <v>-0.00945350878758832</v>
+      </c>
       <c r="N118" s="5"/>
       <c r="O118" s="5"/>
     </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="n">
         <v>4.995</v>
       </c>
@@ -9580,10 +9937,13 @@
       <c r="H119" s="17" t="n">
         <v>-0.00663971400906832</v>
       </c>
+      <c r="I119" s="17" t="n">
+        <v>-0.0132205303220203</v>
+      </c>
       <c r="N119" s="5"/>
       <c r="O119" s="5"/>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="n">
         <v>4.995</v>
       </c>
@@ -9608,10 +9968,13 @@
       <c r="H120" s="17" t="n">
         <v>-0.00955524739793609</v>
       </c>
+      <c r="I120" s="17" t="n">
+        <v>-0.0193499135932256</v>
+      </c>
       <c r="N120" s="5"/>
       <c r="O120" s="5"/>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="n">
         <v>4.995</v>
       </c>
@@ -9636,10 +9999,13 @@
       <c r="H121" s="17" t="n">
         <v>-0.0135324592243</v>
       </c>
+      <c r="I121" s="17" t="n">
+        <v>-0.0278951184844741</v>
+      </c>
       <c r="N121" s="5"/>
       <c r="O121" s="5"/>
     </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="n">
         <v>4.995</v>
       </c>
@@ -9664,10 +10030,13 @@
       <c r="H122" s="17" t="n">
         <v>-0.0164216772857428</v>
       </c>
+      <c r="I122" s="17" t="n">
+        <v>-0.0346870109447692</v>
+      </c>
       <c r="N122" s="5"/>
       <c r="O122" s="5"/>
     </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="n">
         <v>4.995</v>
       </c>
@@ -9692,10 +10061,13 @@
       <c r="H123" s="17" t="n">
         <v>-0.0198444992990524</v>
       </c>
+      <c r="I123" s="17" t="n">
+        <v>-0.0428125138250215</v>
+      </c>
       <c r="N123" s="5"/>
       <c r="O123" s="5"/>
     </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="n">
         <v>4.995</v>
       </c>
@@ -9720,10 +10092,13 @@
       <c r="H124" s="17" t="n">
         <v>-0.0229768024438532</v>
       </c>
+      <c r="I124" s="17" t="n">
+        <v>-0.0500664585370343</v>
+      </c>
       <c r="N124" s="5"/>
       <c r="O124" s="5"/>
     </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="n">
         <v>4.995</v>
       </c>
@@ -9748,10 +10123,13 @@
       <c r="H125" s="17" t="n">
         <v>-0.0258500930939791</v>
       </c>
+      <c r="I125" s="17" t="n">
+        <v>-0.0579763737039618</v>
+      </c>
       <c r="N125" s="5"/>
       <c r="O125" s="5"/>
     </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="n">
         <v>4.995</v>
       </c>
@@ -9776,10 +10154,13 @@
       <c r="H126" s="17" t="n">
         <v>-0.028111819959274</v>
       </c>
+      <c r="I126" s="17" t="n">
+        <v>-0.0646831817132493</v>
+      </c>
       <c r="N126" s="5"/>
       <c r="O126" s="5"/>
     </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="7" t="n">
         <v>4.995</v>
       </c>
@@ -9803,6 +10184,9 @@
       </c>
       <c r="H127" s="17" t="n">
         <v>-0.0300647655954702</v>
+      </c>
+      <c r="I127" s="17" t="n">
+        <v>-0.0708039989371355</v>
       </c>
       <c r="N127" s="5"/>
       <c r="O127" s="5"/>

--- a/processing/DATA/TailOffData.xlsx
+++ b/processing/DATA/TailOffData.xlsx
@@ -345,7 +345,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -358,396 +358,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>"ReMAC=220k"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ReMAC=220k</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
-            </a:solidFill>
-            <a:ln w="25560">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'AoS = 0 deg'!$A$2:$A$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>-4.998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>14</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'AoS = 0 deg'!$D$2:$D$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>-0.1499</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.0618</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.029</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.1189</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.2106</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.3036</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.3927</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.4845</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.5739</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.6622</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.7494</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.8312</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.9081</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.9689</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.0106</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.0405</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.0539</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.0945</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.1077</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.1547</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>"ReMAC=330k"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ReMAC=330k</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="5b9bd5"/>
-            </a:solidFill>
-            <a:ln w="19080">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'AoS = 0 deg'!$A$22:$A$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-4.002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-2.998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>14</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'AoS = 0 deg'!$D$22:$D$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>-0.1705</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.0795</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0139</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.1076</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.2022</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.2967</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.3898</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.4821</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.5731</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.6602</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.7447</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.8248</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.8981</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.959</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.9954</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.0033</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.0394</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.0866</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.1316</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.1499</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>"ReMAC=440k"</c:f>
@@ -941,22 +551,22 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>"ReMAC=550k"</c:f>
+              <c:f>"ReMAC=440k repeat"</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ReMAC=550k</c:v>
+                  <c:v>ReMAC=440k repeat</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ffc000"/>
+              <a:srgbClr val="5b9bd5"/>
             </a:solidFill>
             <a:ln w="25560">
               <a:noFill/>
@@ -967,7 +577,7 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffc000"/>
+                <a:srgbClr val="5b9bd5"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
@@ -997,7 +607,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'AoS = 0 deg'!$A$62:$A$72</c:f>
+              <c:f>'AoS = 0 deg'!$A$73:$A$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1006,7 +616,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'AoS = 0 deg'!$D$62:$D$72</c:f>
+              <c:f>'AoS = 0 deg'!$D$73:$D$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1015,11 +625,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="69144889"/>
-        <c:axId val="87787576"/>
+        <c:axId val="79978294"/>
+        <c:axId val="59598646"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="69144889"/>
+        <c:axId val="79978294"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1095,12 +705,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87787576"/>
+        <c:crossAx val="59598646"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87787576"/>
+        <c:axId val="59598646"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1176,7 +786,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69144889"/>
+        <c:crossAx val="79978294"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1228,7 +838,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1241,396 +851,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>"ReMAC=220k"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ReMAC=220k</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
-            </a:solidFill>
-            <a:ln w="25560">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'AoS = 0 deg'!$E$2:$E$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0.0546</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0524</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.051</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0508</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0514</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0526</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0542</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0566</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0595</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.063</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.067</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.0715</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.0766</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.0832</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.0914</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.1016</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.116</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.1325</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.1587</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.1728</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'AoS = 0 deg'!$D$2:$D$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>-0.1499</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.0618</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.029</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.1189</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.2106</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.3036</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.3927</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.4845</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.5739</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.6622</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.7494</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.8312</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.9081</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.9689</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.0106</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.0405</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.0539</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.0945</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.1077</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.1547</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>"ReMAC=330k"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ReMAC=330k</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="5b9bd5"/>
-            </a:solidFill>
-            <a:ln w="19080">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'AoS = 0 deg'!$E$22:$E$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0.051</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0494</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0485</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0484</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0491</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0508</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0526</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0548</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0575</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0607</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0644</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.069</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.0744</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.0812</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.0909</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.1054</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.1181</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.1324</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.1461</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.1712</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'AoS = 0 deg'!$D$22:$D$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>-0.1705</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.0795</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0139</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.1076</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.2022</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.2967</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.3898</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.4821</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.5731</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.6602</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.7447</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.8248</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.8981</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.959</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.9954</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.0033</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.0394</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.0866</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.1316</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.1499</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>"ReMAC=440k"</c:f>
@@ -1824,22 +1044,22 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>"ReMAC=550k"</c:f>
+              <c:f>"ReMAC=440k repeat"</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ReMAC=550k</c:v>
+                  <c:v>ReMAC=440k repeat</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ffc000"/>
+              <a:srgbClr val="5b9bd5"/>
             </a:solidFill>
             <a:ln w="25560">
               <a:noFill/>
@@ -1850,7 +1070,7 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffc000"/>
+                <a:srgbClr val="5b9bd5"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
@@ -1880,7 +1100,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'AoS = 0 deg'!$E$62:$E$72</c:f>
+              <c:f>'AoS = 0 deg'!$E$73:$E$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1889,7 +1109,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'AoS = 0 deg'!$D$62:$D$72</c:f>
+              <c:f>'AoS = 0 deg'!$D$73:$D$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1898,11 +1118,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="46586369"/>
-        <c:axId val="3690067"/>
+        <c:axId val="1793258"/>
+        <c:axId val="8529396"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="46586369"/>
+        <c:axId val="1793258"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1978,12 +1198,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3690067"/>
+        <c:crossAx val="8529396"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="3690067"/>
+        <c:axId val="8529396"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2059,7 +1279,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46586369"/>
+        <c:crossAx val="1793258"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2111,7 +1331,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2124,396 +1344,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>"ReMac=220k"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ReMac=220k</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
-            </a:solidFill>
-            <a:ln w="25560">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'AoS = 0 deg'!$A$2:$A$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>-4.998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>14</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'AoS = 0 deg'!$F$2:$F$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>-0.2207</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.2032</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.1875</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.1724</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.1596</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.1439</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.1294</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.1145</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.0995</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.0835</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.0689</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-0.0535</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-0.0377</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-0.0225</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-0.0052</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.0067</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.0129</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.012</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.0033</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.0085</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>"ReMAC=330k"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ReMAC=330k</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="5b9bd5"/>
-            </a:solidFill>
-            <a:ln w="25560">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'AoS = 0 deg'!$A$22:$A$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-4.002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-2.998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>14</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'AoS = 0 deg'!$F$22:$F$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>-0.2065</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.1922</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.1786</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.1645</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.1508</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.1379</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.1237</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.1093</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.0941</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.0791</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.0636</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-0.0494</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-0.034</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-0.0195</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-0.0045</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.0035</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.0099</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.0124</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.0186</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.0099</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>"ReMAC=440k"</c:f>
@@ -2707,22 +1537,22 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>"ReMAC=550k"</c:f>
+              <c:f>"ReMAC=440k repeat"</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ReMAC=550k</c:v>
+                  <c:v>ReMAC=440k repeat</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ffc000"/>
+              <a:srgbClr val="5b9bd5"/>
             </a:solidFill>
             <a:ln w="25560">
               <a:noFill/>
@@ -2733,7 +1563,7 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffc000"/>
+                <a:srgbClr val="5b9bd5"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
@@ -2763,7 +1593,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'AoS = 0 deg'!$A$62:$A$72</c:f>
+              <c:f>'AoS = 0 deg'!$A$73:$A$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2772,7 +1602,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'AoS = 0 deg'!$F$62:$F$72</c:f>
+              <c:f>'AoS = 0 deg'!$F$73:$F$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2781,11 +1611,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="20900756"/>
-        <c:axId val="63989647"/>
+        <c:axId val="64637881"/>
+        <c:axId val="90627269"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="20900756"/>
+        <c:axId val="64637881"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2861,12 +1691,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63989647"/>
+        <c:crossAx val="90627269"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="63989647"/>
+        <c:axId val="90627269"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2942,7 +1772,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20900756"/>
+        <c:crossAx val="64637881"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2994,7 +1824,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3007,6 +1837,396 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"ReMAC=220k"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ReMAC=220k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ed7d31"/>
+            </a:solidFill>
+            <a:ln w="25560">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ed7d31"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'AoS = 0 deg'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-4.998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'AoS = 0 deg'!$D$2:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-0.1499</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.0618</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.029</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1189</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2106</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3036</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3927</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4845</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5739</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6622</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.7494</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.8312</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.9081</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.9689</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0106</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0405</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0539</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0945</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1077</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1547</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"ReMAC=330k"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ReMAC=330k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="5b9bd5"/>
+            </a:solidFill>
+            <a:ln w="19080">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="5b9bd5"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'AoS = 0 deg'!$A$22:$A$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'AoS = 0 deg'!$D$22:$D$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-0.1705</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.0795</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0139</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1076</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2967</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3898</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4821</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5731</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6602</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.7447</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.8248</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.8981</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.959</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.9954</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0033</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0394</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0866</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1316</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1499</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>"ReMAC=440k"</c:f>
@@ -3200,22 +2420,22 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="3"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>"ReMAC=440k repeat"</c:f>
+              <c:f>"ReMAC=550k"</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ReMAC=440k repeat</c:v>
+                  <c:v>ReMAC=550k</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="5b9bd5"/>
+              <a:srgbClr val="ffc000"/>
             </a:solidFill>
             <a:ln w="25560">
               <a:noFill/>
@@ -3226,7 +2446,7 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
+                <a:srgbClr val="ffc000"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
@@ -3256,7 +2476,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'AoS = 0 deg'!$A$73:$A$83</c:f>
+              <c:f>'AoS = 0 deg'!$A$62:$A$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3265,7 +2485,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'AoS = 0 deg'!$D$73:$D$83</c:f>
+              <c:f>'AoS = 0 deg'!$D$62:$D$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3274,11 +2494,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="67057492"/>
-        <c:axId val="1982103"/>
+        <c:axId val="28462959"/>
+        <c:axId val="50547361"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="67057492"/>
+        <c:axId val="28462959"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3354,12 +2574,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1982103"/>
+        <c:crossAx val="50547361"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1982103"/>
+        <c:axId val="50547361"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3435,7 +2655,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67057492"/>
+        <c:crossAx val="28462959"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3487,7 +2707,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3500,6 +2720,396 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"ReMAC=220k"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ReMAC=220k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ed7d31"/>
+            </a:solidFill>
+            <a:ln w="25560">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ed7d31"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'AoS = 0 deg'!$E$2:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.0546</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0524</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.051</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0508</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0514</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0526</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0542</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0566</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0595</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.063</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.067</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0715</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0766</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0832</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0914</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.1016</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.116</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.1325</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.1587</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.1728</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'AoS = 0 deg'!$D$2:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-0.1499</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.0618</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.029</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1189</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2106</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3036</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3927</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4845</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5739</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6622</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.7494</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.8312</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.9081</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.9689</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0106</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0405</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0539</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0945</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1077</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1547</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"ReMAC=330k"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ReMAC=330k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="5b9bd5"/>
+            </a:solidFill>
+            <a:ln w="19080">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="5b9bd5"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'AoS = 0 deg'!$E$22:$E$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.051</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0494</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0485</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0484</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0491</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0508</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0526</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0548</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0575</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0607</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0644</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.069</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0744</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0812</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0909</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.1054</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.1181</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.1324</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.1461</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.1712</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'AoS = 0 deg'!$D$22:$D$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-0.1705</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.0795</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0139</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1076</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2967</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3898</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4821</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5731</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6602</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.7447</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.8248</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.8981</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.959</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.9954</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0033</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0394</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0866</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1316</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1499</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>"ReMAC=440k"</c:f>
@@ -3693,22 +3303,22 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="3"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>"ReMAC=440k repeat"</c:f>
+              <c:f>"ReMAC=550k"</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ReMAC=440k repeat</c:v>
+                  <c:v>ReMAC=550k</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="5b9bd5"/>
+              <a:srgbClr val="ffc000"/>
             </a:solidFill>
             <a:ln w="25560">
               <a:noFill/>
@@ -3719,7 +3329,7 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
+                <a:srgbClr val="ffc000"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
@@ -3749,7 +3359,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'AoS = 0 deg'!$E$73:$E$83</c:f>
+              <c:f>'AoS = 0 deg'!$E$62:$E$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3758,7 +3368,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'AoS = 0 deg'!$D$73:$D$83</c:f>
+              <c:f>'AoS = 0 deg'!$D$62:$D$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3767,11 +3377,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="14035595"/>
-        <c:axId val="56232927"/>
+        <c:axId val="49859337"/>
+        <c:axId val="28224126"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="14035595"/>
+        <c:axId val="49859337"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3847,12 +3457,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56232927"/>
+        <c:crossAx val="28224126"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="56232927"/>
+        <c:axId val="28224126"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3928,7 +3538,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14035595"/>
+        <c:crossAx val="49859337"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3980,7 +3590,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3993,6 +3603,396 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"ReMac=220k"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ReMac=220k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ed7d31"/>
+            </a:solidFill>
+            <a:ln w="25560">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ed7d31"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'AoS = 0 deg'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-4.998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'AoS = 0 deg'!$F$2:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-0.2207</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.2032</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.1875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.1724</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.1596</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.1439</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.1294</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.1145</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.0995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.0835</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.0689</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.0535</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.0377</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.0225</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.0052</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0067</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0129</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0033</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0085</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"ReMAC=330k"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ReMAC=330k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="5b9bd5"/>
+            </a:solidFill>
+            <a:ln w="25560">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="5b9bd5"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'AoS = 0 deg'!$A$22:$A$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'AoS = 0 deg'!$F$22:$F$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-0.2065</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.1922</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.1786</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.1645</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.1508</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.1379</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.1237</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.1093</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.0941</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.0791</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.0636</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.0494</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.034</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.0195</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.0045</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0035</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0099</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0124</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0186</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0099</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>"ReMAC=440k"</c:f>
@@ -4186,22 +4186,22 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="3"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>"ReMAC=440k repeat"</c:f>
+              <c:f>"ReMAC=550k"</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ReMAC=440k repeat</c:v>
+                  <c:v>ReMAC=550k</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="5b9bd5"/>
+              <a:srgbClr val="ffc000"/>
             </a:solidFill>
             <a:ln w="25560">
               <a:noFill/>
@@ -4212,7 +4212,7 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
+                <a:srgbClr val="ffc000"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
@@ -4242,7 +4242,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'AoS = 0 deg'!$A$73:$A$83</c:f>
+              <c:f>'AoS = 0 deg'!$A$62:$A$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4251,7 +4251,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'AoS = 0 deg'!$F$73:$F$83</c:f>
+              <c:f>'AoS = 0 deg'!$F$62:$F$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4260,11 +4260,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="58735977"/>
-        <c:axId val="1363242"/>
+        <c:axId val="20627005"/>
+        <c:axId val="29673494"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="58735977"/>
+        <c:axId val="20627005"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4340,12 +4340,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1363242"/>
+        <c:crossAx val="29673494"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1363242"/>
+        <c:axId val="29673494"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4421,7 +4421,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58735977"/>
+        <c:crossAx val="20627005"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4668,7 +4668,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="M55" activeCellId="0" sqref="M55"/>
+      <selection pane="bottomLeft" activeCell="M55" activeCellId="1" sqref="K126:L126 M55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6459,10 +6459,10 @@
   </sheetPr>
   <dimension ref="A1:O211"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J105" activeCellId="0" sqref="J105"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="K126" activeCellId="0" sqref="K126:L126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
